--- a/Wine_Quality/outputs/train_60_test_40/depth_3/wq_train_60_test_40_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_3/wq_train_60_test_40_depth_3_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5207100591715976</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.3444227005870841</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.414605418138987</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8085676037483266</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9105527638190954</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8565350980855589</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1990</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5027932960893855</v>
+        <v>0.8084918177797434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3522504892367906</v>
+        <v>0.9185929648241206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4142692750287687</v>
+        <v>0.8600329334274288</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7664486340900346</v>
+        <v>0.7710657945363601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7664486340900346</v>
+        <v>0.7710657945363601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7664486340900346</v>
+        <v>0.7710657945363601</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7664486340900346</v>
+        <v>0.7710657945363601</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.437120299945904</v>
+        <v>0.4430672923171137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4209344176852953</v>
+        <v>0.4210052218037348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4236014577047759</v>
+        <v>0.4248794505221387</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7179595635863201</v>
+        <v>0.7214242237854467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7664486340900346</v>
+        <v>0.7710657945363601</v>
       </c>
       <c r="D7" t="n">
-        <v>0.737282202666396</v>
+        <v>0.7400265125777629</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>

--- a/Wine_Quality/outputs/train_60_test_40/depth_3/wq_train_60_test_40_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_3/wq_train_60_test_40_depth_3_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5207100591715976</v>
+        <v>0.52</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3444227005870841</v>
+        <v>0.34</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414605418138987</v>
+        <v>0.41</v>
       </c>
       <c r="E2" t="n">
         <v>511</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8084918177797434</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9185929648241206</v>
+        <v>0.92</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8600329334274288</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>1990</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7710657945363601</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7710657945363601</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7710657945363601</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7710657945363601</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4430672923171137</v>
+        <v>0.44</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4210052218037348</v>
+        <v>0.42</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4248794505221387</v>
+        <v>0.42</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7214242237854467</v>
+        <v>0.72</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7710657945363601</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7400265125777629</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>
